--- a/compliance_standard.xlsx
+++ b/compliance_standard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.marin\Desktop\compliance_standard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.marin\Desktop\CSPM_Create_Compliance_Standard\CSPM_Create_Compliance_Standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8896FC23-3E32-402C-A544-FB6BD0652A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869FEB43-CC90-4E0A-8296-B650A220D6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9DEE5D2D-4291-441F-9F76-AF1C8CABE090}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Compliance Requirement</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Section ID 3.1</t>
+  </si>
+  <si>
+    <t>Section ID 4.2</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,7 +659,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
